--- a/document/画面设计 - 摊主.xlsx
+++ b/document/画面设计 - 摊主.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="13635" tabRatio="784" firstSheet="3" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="13635" tabRatio="784" firstSheet="3" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="画面关系图" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="查看摊位详细" sheetId="13" r:id="rId14"/>
     <sheet name="评价列表" sheetId="14" r:id="rId15"/>
     <sheet name="查看摊主留言" sheetId="16" r:id="rId16"/>
+    <sheet name="个人信息" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -13669,6 +13670,2039 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="842682" y="428625"/>
+          <a:ext cx="5867401" cy="7396443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1908175" y="428625"/>
+          <a:ext cx="2387600" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>360082</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>126066</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="2581275"/>
+          <a:ext cx="1566582" cy="259416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>flyingdeep</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>55282</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>154641</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="546100" y="3695700"/>
+          <a:ext cx="1566582" cy="259416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>昵称：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>74332</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107016</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="565150" y="3286125"/>
+          <a:ext cx="1566582" cy="259416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>邮箱地址：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>64807</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>135591</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="555625" y="4762500"/>
+          <a:ext cx="1566582" cy="259416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>qq</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>号：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>164166</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2546350" y="2619375"/>
+          <a:ext cx="663575" cy="259416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>摊主</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>45757</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>68916</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="536575" y="4152900"/>
+          <a:ext cx="1566582" cy="259416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>所在地</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>55282</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>154641</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="546100" y="5324475"/>
+          <a:ext cx="1566582" cy="259416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>微信号：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>55282</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>145116</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="546100" y="5857875"/>
+          <a:ext cx="1566582" cy="259416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>手机：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>55282</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>135591</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="546100" y="6391275"/>
+          <a:ext cx="1566582" cy="259416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>创建日期：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rounded Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4705350" y="2600325"/>
+          <a:ext cx="771525" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>修改密码</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rounded Rectangle 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3648075" y="1933575"/>
+          <a:ext cx="561975" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>修改</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="156882" y="238125"/>
+          <a:ext cx="5867401" cy="7396443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>522007</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9242425" y="942975"/>
+          <a:ext cx="1566582" cy="259416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>flyingdeep</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>198157</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>40341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7546975" y="2857500"/>
+          <a:ext cx="1566582" cy="259416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>昵称：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>198157</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2241</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7546975" y="3905250"/>
+          <a:ext cx="1566582" cy="259416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>qq</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>号：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>126066</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10547350" y="952500"/>
+          <a:ext cx="663575" cy="259416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>摊主</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>207682</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>11766</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7556500" y="2286000"/>
+          <a:ext cx="1566582" cy="259416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>所在地</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>650875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>160057</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>11766</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextBox 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7508875" y="4457700"/>
+          <a:ext cx="1566582" cy="259416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>微信号：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>650875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>160057</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>68916</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="TextBox 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7508875" y="5057775"/>
+          <a:ext cx="1566582" cy="259416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>手机：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rounded Rectangle 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="2600325"/>
+          <a:ext cx="819150" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>修改信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>346075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>92869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7204075" y="457200"/>
+          <a:ext cx="1444625" cy="1083469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="TextBox 37"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="156882" y="238125"/>
+          <a:ext cx="5867401" cy="7396443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>360082</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>126066</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="TextBox 39"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="2581275"/>
+          <a:ext cx="1566582" cy="259416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>原密码：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>188632</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>59391</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="TextBox 40"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1365250" y="12668250"/>
+          <a:ext cx="1566582" cy="259416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>再次输入密码：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>245782</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>49866</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="TextBox 41"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1422400" y="11753850"/>
+          <a:ext cx="1566582" cy="259416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>输入新密码：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>188632</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30816</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="TextBox 52"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7537450" y="3390900"/>
+          <a:ext cx="1566582" cy="259416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>邮箱地址：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>185457</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>59391</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="TextBox 53"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3419475" y="9229725"/>
+          <a:ext cx="1566582" cy="259416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>flyingdeep</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>68916</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="TextBox 54"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724400" y="9239250"/>
+          <a:ext cx="663575" cy="259416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>摊主</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="8743950"/>
+          <a:ext cx="1444625" cy="1083469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="TextBox 56"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="12192000"/>
+          <a:ext cx="3228975" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="TextBox 57"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1619250" y="11191875"/>
+          <a:ext cx="3228975" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="TextBox 58"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609725" y="13296900"/>
+          <a:ext cx="3228975" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -20630,16 +22664,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>268941</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>136152</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>425824</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>345141</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>57710</xdr:rowOff>
+      <xdr:rowOff>31377</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502024</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133910</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20648,7 +22682,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="954741" y="688602"/>
+          <a:off x="4459941" y="945777"/>
           <a:ext cx="842683" cy="283508"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -21355,15 +23389,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>59391</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>136152</xdr:rowOff>
+      <xdr:colOff>21291</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31377</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>216274</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57710</xdr:rowOff>
+      <xdr:colOff>178174</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133910</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21372,7 +23406,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5545791" y="688602"/>
+          <a:off x="5507691" y="945777"/>
           <a:ext cx="842683" cy="283508"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -21713,6 +23747,66 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>查看评价</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581586</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>132229</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rounded Rectangle 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="981075"/>
+          <a:ext cx="829236" cy="246529"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>个人设置</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -29201,8 +31295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -29683,7 +31777,1350 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="P75" sqref="P75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="6"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="6"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="6"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="6"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="6"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="6"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="6"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="6"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="6"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="6"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="6"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="6"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="6"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="6"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="6"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="6"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="6"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="6"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="6"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="6"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="6"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="6"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="6"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="6"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="6"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="6"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="6"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="6"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="6"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="6"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="6"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="6"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="6"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="6"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="6"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="6"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="6"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="6"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="6"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="6"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="6"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="6"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="6"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="6"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="9"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="9"/>
+    </row>
+    <row r="45" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B46" s="1"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="6"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="6"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="6"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="6"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="6"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="6"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="6"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B68" s="4"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="6"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B69" s="4"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="6"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B70" s="4"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="6"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B71" s="4"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="6"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B72" s="4"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="6"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B73" s="4"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="6"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B74" s="4"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="6"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B75" s="4"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="6"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B76" s="4"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="6"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B77" s="4"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="6"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B78" s="4"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="6"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B79" s="4"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="6"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B80" s="4"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="6"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B81" s="4"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="6"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B82" s="4"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="6"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B83" s="4"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="6"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B84" s="4"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="6"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B85" s="4"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="6"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B86" s="4"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="6"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B87" s="4"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="6"/>
+    </row>
+    <row r="88" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="7"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -31312,7 +34749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R77"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
@@ -32663,8 +36100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
